--- a/Parameter supplementary data .xlsx
+++ b/Parameter supplementary data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\PBK\Cinnamaldehyde-pbk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCFC539-F21F-4755-912B-379D68125E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875FFFEC-8FB5-46A0-B983-8F3F33CFE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31EFE8C3-DD10-4F56-8B9A-3502E68B8CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="247">
   <si>
     <t xml:space="preserve">Parameter </t>
   </si>
@@ -822,6 +822,77 @@
   </si>
   <si>
     <t xml:space="preserve">unclear on what basis richly perfused tissue takes 37% of QC </t>
+  </si>
+  <si>
+    <t>Tissue:blood partition coefficients were estimated based on a method of DeJongh et al. (1997) from logKow. The logKow values were estimated with Estimation Program Interface (EPI) Suite version 4.10 provided by the US Environmental Protection Agency. Model equations (supporting information 1) were coded and numerically integrated in Berkeley Madonna 8.3.18 (Macey and Oster, UC Berkeley, CA, USA), using the Rosenbrock's algorithm for stiff systems.</t>
+  </si>
+  <si>
+    <t>Absorption Absorption rate
+from gastrointestinal
+tract (oral dose) or
+intraperitoneal cavity
+(ip dose)
+KA (/h) 5 Model simulations fit to
+Raymer et al. (1993),
+Miller et al. (1982),
+Ramsey et al. (1984)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">assumed to be similar to the absoprtion of Acrylamide found in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Christopher Kirman, Michael Gargas, Randy Deskin, Lisa Tonner-Navarro &amp; Melvin Andersen (2003) A Physiologically Based Pharmacokinetic Model for Acrylamide and Its Metabolite, Glycidamide, in the Rat, Journal of Toxicology and Environmental Health, Part A, 66:3, 253-274, DOI: 10.1080/15287390306368</t>
+    </r>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Assimakopoulos, S.F., Thomopoulos, K.C., Patsoukis, N., Georgiou, C.D., Scopa, C.D., Nikolopoulou, V.N. and Vagianos, C.E. (2006), Evidence for intestinal oxidative stress in patients with obstructive jaundice. European Journal of Clinical Investigation, 36: 181-187. https://doi-org.proxy.library.uu.nl/10.1111/j.1365-2362.2006.01616.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unclear where this numer comes from in the paper </t>
+  </si>
+  <si>
+    <t>Lisa M. Sweeney, Christopher R. Kirman, Michael L. Gargas, M. Leigh Carson, Robert G. Tardiff,
+Development of a physiologically-based toxicokinetic model of acrylamide and glycidamide in rats and humans, Food and Chemical Toxicology, Volume 48, Issue 2,2010,
+Pages 668-685,ISSN 0278-6915,https://doi.org/10.1016/j.fct.2009.11.049.(https://www.sciencedirect.com/science/article/pii/S0278691509005651)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supposedly is presentend in this paper have not found it thus far </t>
+  </si>
+  <si>
+    <t>David W. Potter, Thu-Ba Tran,
+Rates of ethyl acrylate binding to glutathione and protein,
+Toxicology Letters, Volume 62, Issues 2–3, 1992, Pages 275-285, ISSN 0378-4274,
+https://doi.org/10.1016/0378-4274(92)90031-E. (https://www.sciencedirect.com/science/article/pii/037842749290031E)</t>
+  </si>
+  <si>
+    <t>A value of 5319 umol/kg is noted in the paper not 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A value of 245 umol/kg is noted in the paper not </t>
+  </si>
+  <si>
+    <t>CdGL was caluculated to be 1.36 μmol/kg liver using the average molecular weight of nucleotides (330 g/mol) and reported concentration of DNA in a rat liver (1.8 g/kg liver).</t>
+  </si>
+  <si>
+    <t>Km toward cinnamaldehyde for enzymatic conjugation of cinnamaldehyde in the small intestine (μM)</t>
+  </si>
+  <si>
+    <t>Km toward GSH for enzymatic conjugation of cinnamaldehyde in the small intestine (μM)</t>
+  </si>
+  <si>
+    <t>Scaled Vmax for enzymatic conjugation of cinnamaldehyde with GSH in the liver (μmol/h)</t>
   </si>
 </sst>
 </file>
@@ -899,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -919,6 +990,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1236,23 +1322,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D684224-74AE-4DFE-B7FF-DE9B6310C4D9}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" customWidth="1"/>
+    <col min="2" max="2" width="102.140625" customWidth="1"/>
     <col min="3" max="3" width="61.140625" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1268,8 +1355,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1282,8 +1372,9 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1296,8 +1387,9 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1310,8 +1402,9 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1324,8 +1417,9 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1338,8 +1432,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1352,8 +1447,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1366,8 +1462,9 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1380,8 +1477,9 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1394,8 +1492,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1408,8 +1507,9 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -1423,7 +1523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -1437,7 +1537,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -1451,7 +1551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -1468,7 +1568,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -1736,7 +1836,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1753,7 +1853,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1766,11 +1866,11 @@
       <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1783,11 +1883,11 @@
       <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -1800,8 +1900,14 @@
       <c r="D36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -1814,8 +1920,9 @@
       <c r="D37" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -1829,7 +1936,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -1843,7 +1950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -1856,8 +1963,14 @@
       <c r="D40" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -1870,8 +1983,9 @@
       <c r="D41" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -1884,8 +1998,9 @@
       <c r="D42" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -1899,7 +2014,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -1912,8 +2027,14 @@
       <c r="D44" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -1926,8 +2047,12 @@
       <c r="D45" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="13"/>
+      <c r="G45" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -1940,8 +2065,11 @@
       <c r="D46" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -1952,10 +2080,10 @@
         <v>38.5</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -1965,8 +2093,14 @@
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>177</v>
+      <c r="D48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,7 +2164,7 @@
         <v>198</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C53" s="5">
         <v>100</v>
@@ -2086,7 +2220,7 @@
         <v>203</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="C57" s="5">
         <v>100</v>
@@ -2156,7 +2290,7 @@
         <v>210</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C62">
         <v>100</v>
@@ -2222,6 +2356,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:F11"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F44:F45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Parameter supplementary data .xlsx
+++ b/Parameter supplementary data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\PBK\Cinnamaldehyde-pbk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCFC539-F21F-4755-912B-379D68125E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55422CA2-4603-403B-A0A2-B495DF55696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31EFE8C3-DD10-4F56-8B9A-3502E68B8CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="248">
   <si>
     <t xml:space="preserve">Parameter </t>
   </si>
@@ -822,6 +822,80 @@
   </si>
   <si>
     <t xml:space="preserve">unclear on what basis richly perfused tissue takes 37% of QC </t>
+  </si>
+  <si>
+    <t>Tissue:blood partition coefficients were estimated based on a method of DeJongh et al. (1997) from logKow. The logKow values were estimated with Estimation Program Interface (EPI) Suite version 4.10 provided by the US Environmental Protection Agency. Model equations (supporting information 1) were coded and numerically integrated in Berkeley Madonna 8.3.18 (Macey and Oster, UC Berkeley, CA, USA), using the Rosenbrock's algorithm for stiff systems.</t>
+  </si>
+  <si>
+    <t>Absorption Absorption rate
+from gastrointestinal
+tract (oral dose) or
+intraperitoneal cavity
+(ip dose)
+KA (/h) 5 Model simulations fit to
+Raymer et al. (1993),
+Miller et al. (1982),
+Ramsey et al. (1984)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">assumed to be similar to the absoprtion of Acrylamide found in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Christopher Kirman, Michael Gargas, Randy Deskin, Lisa Tonner-Navarro &amp; Melvin Andersen (2003) A Physiologically Based Pharmacokinetic Model for Acrylamide and Its Metabolite, Glycidamide, in the Rat, Journal of Toxicology and Environmental Health, Part A, 66:3, 253-274, DOI: 10.1080/15287390306368</t>
+    </r>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Assimakopoulos, S.F., Thomopoulos, K.C., Patsoukis, N., Georgiou, C.D., Scopa, C.D., Nikolopoulou, V.N. and Vagianos, C.E. (2006), Evidence for intestinal oxidative stress in patients with obstructive jaundice. European Journal of Clinical Investigation, 36: 181-187. https://doi-org.proxy.library.uu.nl/10.1111/j.1365-2362.2006.01616.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unclear where this numer comes from in the paper </t>
+  </si>
+  <si>
+    <t>Lisa M. Sweeney, Christopher R. Kirman, Michael L. Gargas, M. Leigh Carson, Robert G. Tardiff,
+Development of a physiologically-based toxicokinetic model of acrylamide and glycidamide in rats and humans, Food and Chemical Toxicology, Volume 48, Issue 2,2010,
+Pages 668-685,ISSN 0278-6915,https://doi.org/10.1016/j.fct.2009.11.049.(https://www.sciencedirect.com/science/article/pii/S0278691509005651)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supposedly is presentend in this paper have not found it thus far </t>
+  </si>
+  <si>
+    <t>David W. Potter, Thu-Ba Tran,
+Rates of ethyl acrylate binding to glutathione and protein,
+Toxicology Letters, Volume 62, Issues 2–3, 1992, Pages 275-285, ISSN 0378-4274,
+https://doi.org/10.1016/0378-4274(92)90031-E. (https://www.sciencedirect.com/science/article/pii/037842749290031E)</t>
+  </si>
+  <si>
+    <t>A value of 5319 umol/kg is noted in the paper not 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A value of 245 umol/kg is noted in the paper not </t>
+  </si>
+  <si>
+    <t>CdGL was caluculated to be 1.36 μmol/kg liver using the average molecular weight of nucleotides (330 g/mol) and reported concentration of DNA in a rat liver (1.8 g/kg liver).</t>
+  </si>
+  <si>
+    <t>Km toward cinnamaldehyde for enzymatic conjugation of cinnamaldehyde in the small intestine (μM)</t>
+  </si>
+  <si>
+    <t>Km toward GSH for enzymatic conjugation of cinnamaldehyde in the small intestine (μM)</t>
+  </si>
+  <si>
+    <t>Scaled Vmax for enzymatic conjugation of cinnamaldehyde with GSH in the liver (μmol/h)</t>
+  </si>
+  <si>
+    <t>This is the remaning slowly perfused tissue after subtracting other slowly perfused compartments</t>
   </si>
 </sst>
 </file>
@@ -899,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -920,6 +994,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1236,23 +1325,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D684224-74AE-4DFE-B7FF-DE9B6310C4D9}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" customWidth="1"/>
+    <col min="2" max="2" width="102.140625" customWidth="1"/>
     <col min="3" max="3" width="61.140625" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1268,8 +1358,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1282,8 +1375,9 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1296,8 +1390,9 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1310,8 +1405,9 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1324,8 +1420,9 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1338,8 +1435,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1352,8 +1450,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1366,8 +1465,9 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1380,8 +1480,9 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1394,8 +1495,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1408,8 +1510,9 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -1423,7 +1526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -1437,7 +1540,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -1451,7 +1554,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -1468,7 +1571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -1736,7 +1839,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1753,7 +1856,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1766,11 +1869,11 @@
       <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1783,11 +1886,11 @@
       <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -1800,8 +1903,14 @@
       <c r="D36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -1814,8 +1923,9 @@
       <c r="D37" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -1829,7 +1939,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -1843,7 +1953,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -1856,8 +1966,14 @@
       <c r="D40" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -1870,8 +1986,9 @@
       <c r="D41" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -1884,8 +2001,9 @@
       <c r="D42" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -1899,7 +2017,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -1912,8 +2030,14 @@
       <c r="D44" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -1926,8 +2050,12 @@
       <c r="D45" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="13"/>
+      <c r="G45" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -1940,8 +2068,11 @@
       <c r="D46" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -1952,10 +2083,10 @@
         <v>38.5</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -1965,8 +2096,14 @@
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>177</v>
+      <c r="D48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,7 +2167,7 @@
         <v>198</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C53" s="5">
         <v>100</v>
@@ -2086,7 +2223,7 @@
         <v>203</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="C57" s="5">
         <v>100</v>
@@ -2156,7 +2293,7 @@
         <v>210</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C62">
         <v>100</v>
@@ -2222,6 +2359,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:F11"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F44:F45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2231,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8CF069-1D83-4C29-B8C9-8D7A85A777EB}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2821,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">

--- a/Parameter supplementary data .xlsx
+++ b/Parameter supplementary data .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\PBK\Cinnamaldehyde-pbk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joris\Toxicology and Environmental Health\Master stage\R\Cinnamaldehyde PBK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55422CA2-4603-403B-A0A2-B495DF55696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02BD2F8-D0D0-4DB3-BB57-8B132A272E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31EFE8C3-DD10-4F56-8B9A-3502E68B8CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="265">
   <si>
     <t xml:space="preserve">Parameter </t>
   </si>
@@ -897,12 +897,63 @@
   <si>
     <t>This is the remaning slowly perfused tissue after subtracting other slowly perfused compartments</t>
   </si>
+  <si>
+    <t>104-55-2</t>
+  </si>
+  <si>
+    <t>3-phenyl-2-propenal</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>CAS-number</t>
+  </si>
+  <si>
+    <t>Compound name</t>
+  </si>
+  <si>
+    <t>Faeces</t>
+  </si>
+  <si>
+    <t>Urine</t>
+  </si>
+  <si>
+    <t>Breath</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Saliva</t>
+  </si>
+  <si>
+    <t>Henry' constant @ 310.15 K [conc_water/conc_air]</t>
+  </si>
+  <si>
+    <t>Blood:Air partition coefficient [conc_blood/conc_air]</t>
+  </si>
+  <si>
+    <t>Fat:Air partition coefficient  [conc_fat/conc_air]</t>
+  </si>
+  <si>
+    <t>Fat_Blood partition coefficient  [conc_fat/conc_blood]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,6 +997,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -960,7 +1025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -968,12 +1033,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1010,10 +1136,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="2" xr:uid="{DE7BC18A-9D54-48A0-AB30-07C48903A88E}"/>
+    <cellStyle name="Standard 2" xfId="3" xr:uid="{8BE6A642-AF34-43F4-A01E-4F8E076EA935}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D684224-74AE-4DFE-B7FF-DE9B6310C4D9}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,6 +2509,79 @@
       </c>
       <c r="D66" s="5" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="K86" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="L86" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="M86" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="J87" s="20">
+        <v>873.10334785411487</v>
+      </c>
+      <c r="K87" s="20">
+        <v>274.83920626249699</v>
+      </c>
+      <c r="L87" s="20">
+        <v>80886.100486578129</v>
+      </c>
+      <c r="M87" s="19">
+        <v>294.30335499268068</v>
       </c>
     </row>
   </sheetData>
